--- a/selecao.xlsx
+++ b/selecao.xlsx
@@ -1,104 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_APPs\Achadinhos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F5F66C-60DA-4F36-B808-A0EFCA86CC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
-  <si>
-    <t>Produtos</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>https://shopee.com.br/product/912905460/16892189215</t>
-  </si>
-  <si>
-    <t>Processado em 05/02/2026</t>
-  </si>
-  <si>
-    <t>https://shopee.com.br/product/344381236/42803249180</t>
-  </si>
-  <si>
-    <t>https://shopee.com.br/Mesa-de-Jantar-4-Lugares-Los-Angeles-i.580791382.19897662744?extraParams=%7B%22display_model_id%22%3A149776774843%7D</t>
-  </si>
-  <si>
-    <t>https://shopee.com.br/MAGCUBIC-HY300-Pro-Projetor-4K-WiFi-6-BT5.4-Cinema-Port%C3%A1til-Alto-falante-de-5W-i.1626173736.22394428811?extraParams=%7B%22display_model_id%22%3A159548808203%7D</t>
-  </si>
-  <si>
-    <t>https://shopee.com.br/Multifuncional-Epson-L3250-Ecotank-Jato-de-Tinta-Wi-Fi-Preto-Bivolt-i.822103155.23793479811?extraParams=%7B%22display_model_id%22%3A228774356108%7D</t>
-  </si>
-  <si>
-    <t>https://shopee.com.br/Super-Tweeter-Jbl-Selenium-ST450-Trio-300w-Rms-8-Ohms-i.1101226660.23798178293?extraParams=%7B%22display_model_id%22%3A189603417395%7D</t>
-  </si>
-  <si>
-    <t>https://shopee.com.br/Smartphone-Samsung-Galaxy-A16-4G-LTE-128GB-4GB-RAM-C%C3%A2mera-50MP-Tela-6.7-NFC-Verde-Claro-(AM)-i.413072701.40518068672?extraParams=%7B%22display_model_id%22%3A286487401275%7D</t>
-  </si>
-  <si>
-    <t>https://shopee.com.br/Pneu-Technic-Bellatrix-130-70-13-57P-TL-NMAX-160-PCX-160-ADV-150-Traseiro-SEM-CAMARA-i.784758508.19508233980?extraParams=%7B%22display_model_id%22%3A173078254438%7D</t>
-  </si>
-  <si>
-    <t>https://shopee.com.br/Secador-de-Cabelo-Black-%C3%8Don-Taiff-2000W-i.1045085918.22294507085?extraParams=%7B%22display_model_id%22%3A149549210612%7D</t>
-  </si>
-  <si>
-    <t>https://shopee.com.br/Cadeira-Gamer-Profissional-Reclin%C3%A1vel-Ajust%C3%A1vel-e-Confort%C3%A1vel-para-Escrit%C3%B3rio-e-Estudos-F19-i.1386771889.23694084596?extraParams=%7B%22display_model_id%22%3A179406485306%7D</t>
-  </si>
-  <si>
-    <t>https://shopee.com.br/Air-Fryer-Oven-Philco-12L-Kitchen-Art-Digital-KFR02-i.811034337.22097552168?extraParams=%7B%22display_model_id%22%3A129828610531%7D</t>
-  </si>
-  <si>
-    <t>https://shopee.com.br/Capa-Protetora-De-Couro-Para-Chave-De-Carro-Geely-EX2-EX2-Pro-Geome-EV-Auto-Key-Fob-Keyless-Holder-Chav-i.1229510088.56903028877?extraParams=%7B%22display_model_id%22%3A390292583721%2C%22model_selection_logic%22%3A3%7D&amp;sp_atk=ba3f653e-4b65-4269-ac3c-7d612bbc38af&amp;xptdk=ba3f653e-4b65-4269-ac3c-7d612bbc38af</t>
-  </si>
-  <si>
-    <t>https://shopee.com.br/Geely-EX2-ev-especial-carro-dedicado-chave-capa-2025-High-End-carro-capa-protetora-fivela-saco-e.mas-5-carro-especial-de-i.1268242355.48101896653?extraParams=%7B%22display_model_id%22%3A89902725090%7D</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -113,46 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -440,126 +420,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Produtos</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://shopee.com.br/product/912905460/16892189215</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Processado em 05/02/2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://shopee.com.br/product/344381236/42803249180</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Processado em 05/02/2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://shopee.com.br/Mesa-de-Jantar-4-Lugares-Los-Angeles-i.580791382.19897662744?extraParams=%7B%22display_model_id%22%3A149776774843%7D</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Processado em 05/02/2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://shopee.com.br/MAGCUBIC-HY300-Pro-Projetor-4K-WiFi-6-BT5.4-Cinema-Port%C3%A1til-Alto-falante-de-5W-i.1626173736.22394428811?extraParams=%7B%22display_model_id%22%3A159548808203%7D</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Processado em 05/02/2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://shopee.com.br/Multifuncional-Epson-L3250-Ecotank-Jato-de-Tinta-Wi-Fi-Preto-Bivolt-i.822103155.23793479811?extraParams=%7B%22display_model_id%22%3A228774356108%7D</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Processado em 05/02/2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://shopee.com.br/Super-Tweeter-Jbl-Selenium-ST450-Trio-300w-Rms-8-Ohms-i.1101226660.23798178293?extraParams=%7B%22display_model_id%22%3A189603417395%7D</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Processado em 05/02/2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://shopee.com.br/Smartphone-Samsung-Galaxy-A16-4G-LTE-128GB-4GB-RAM-C%C3%A2mera-50MP-Tela-6.7-NFC-Verde-Claro-(AM)-i.413072701.40518068672?extraParams=%7B%22display_model_id%22%3A286487401275%7D</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Processado em 05/02/2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://shopee.com.br/Pneu-Technic-Bellatrix-130-70-13-57P-TL-NMAX-160-PCX-160-ADV-150-Traseiro-SEM-CAMARA-i.784758508.19508233980?extraParams=%7B%22display_model_id%22%3A173078254438%7D</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Processado em 05/02/2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://shopee.com.br/Secador-de-Cabelo-Black-%C3%8Don-Taiff-2000W-i.1045085918.22294507085?extraParams=%7B%22display_model_id%22%3A149549210612%7D</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Processado em 05/02/2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://shopee.com.br/Cadeira-Gamer-Profissional-Reclin%C3%A1vel-Ajust%C3%A1vel-e-Confort%C3%A1vel-para-Escrit%C3%B3rio-e-Estudos-F19-i.1386771889.23694084596?extraParams=%7B%22display_model_id%22%3A179406485306%7D</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Processado em 05/02/2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://shopee.com.br/Air-Fryer-Oven-Philco-12L-Kitchen-Art-Digital-KFR02-i.811034337.22097552168?extraParams=%7B%22display_model_id%22%3A129828610531%7D</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Processado em 05/02/2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://shopee.com.br/Capa-Protetora-De-Couro-Para-Chave-De-Carro-Geely-EX2-EX2-Pro-Geome-EV-Auto-Key-Fob-Keyless-Holder-Chav-i.1229510088.56903028877?extraParams=%7B%22display_model_id%22%3A390292583721%2C%22model_selection_logic%22%3A3%7D&amp;sp_atk=ba3f653e-4b65-4269-ac3c-7d612bbc38af&amp;xptdk=ba3f653e-4b65-4269-ac3c-7d612bbc38af</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Processado em 05/02/2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://shopee.com.br/Geely-EX2-ev-especial-carro-dedicado-chave-capa-2025-High-End-carro-capa-protetora-fivela-saco-e.mas-5-carro-especial-de-i.1268242355.48101896653?extraParams=%7B%22display_model_id%22%3A89902725090%7D</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Processado em 05/02/2026</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" display="https://shopee.com.br/Capa-Protetora-De-Couro-Para-Chave-De-Carro-Geely-EX2-EX2-Pro-Geome-EV-Auto-Key-Fob-Keyless-Holder-Chav-i.1229510088.56903028877?extraParams=%7B%22display_model_id%22%3A390292583721%2C%22model_selection_logic%22%3A3%7D&amp;sp_atk=ba3f653e-4b65-4269-ac3c-7d612bbc38af&amp;xptdk=ba3f653e-4b65-4269-ac3c-7d612bbc38af" xr:uid="{CECEF810-3A3D-41A1-99D5-E6A4377ABF35}"/>
-    <hyperlink ref="A14" r:id="rId2" xr:uid="{D92E08C7-D59F-49FC-9628-EE9711854F50}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>